--- a/Detailed Performance metrics.xlsx
+++ b/Detailed Performance metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth\Documents\Cranfield_Thesis_drafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FD49D6-6F17-4B67-B220-5B03085F2BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EBC5F0-1E56-4AB5-BA19-DF32E8E7AA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3DCC2934-582E-43F5-B937-91C9D3E86481}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{3DCC2934-582E-43F5-B937-91C9D3E86481}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
   <si>
     <t>Drug</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Mean Performance metrics for the GBT model on the F2 feature-set across all included drugs</t>
+  </si>
+  <si>
+    <t>Total number of Samples</t>
   </si>
 </sst>
 </file>
@@ -222,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -233,7 +236,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -242,9 +244,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE8577A-9020-4096-B366-AC4CC7E4CB8B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,55 +575,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -635,26 +639,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0CBAA6-E952-4678-AEFE-17809747ADE5}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="21.36328125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -664,8 +674,11 @@
       <c r="C2" s="3">
         <v>1024</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="3">
+        <v>33313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -675,8 +688,11 @@
       <c r="C3" s="3">
         <v>1031</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="3">
+        <v>33087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -686,8 +702,11 @@
       <c r="C4" s="3">
         <v>1061</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="3">
+        <v>29950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -697,8 +716,11 @@
       <c r="C5" s="3">
         <v>1059</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="3">
+        <v>15107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -708,8 +730,11 @@
       <c r="C6" s="3">
         <v>985</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="3">
+        <v>11383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -719,8 +744,11 @@
       <c r="C7" s="3">
         <v>931</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="3">
+        <v>17624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -730,8 +758,11 @@
       <c r="C8" s="3">
         <v>938</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="3">
+        <v>10215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -741,8 +772,11 @@
       <c r="C9" s="3">
         <v>898</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="3">
+        <v>18328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -752,8 +786,11 @@
       <c r="C10" s="3">
         <v>1428</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -763,8 +800,11 @@
       <c r="C11" s="3">
         <v>916</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="3">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -774,8 +814,11 @@
       <c r="C12" s="3">
         <v>917</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="3">
+        <v>15829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -785,8 +828,11 @@
       <c r="C13" s="3">
         <v>920</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="3">
+        <v>15617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -796,8 +842,11 @@
       <c r="C14" s="3">
         <v>895</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="3">
+        <v>14649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -806,6 +855,9 @@
       </c>
       <c r="C15" s="3">
         <v>916</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10815</v>
       </c>
     </row>
   </sheetData>
